--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9662916240583</v>
+        <v>28.401376</v>
       </c>
       <c r="H2">
-        <v>20.9662916240583</v>
+        <v>85.204128</v>
       </c>
       <c r="I2">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="J2">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.5444616537335</v>
+        <v>91.65675166666666</v>
       </c>
       <c r="N2">
-        <v>15.5444616537335</v>
+        <v>274.970255</v>
       </c>
       <c r="O2">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="P2">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="Q2">
-        <v>325.9097161711681</v>
+        <v>2603.177867023627</v>
       </c>
       <c r="R2">
-        <v>325.9097161711681</v>
+        <v>23428.60080321264</v>
       </c>
       <c r="S2">
-        <v>0.2647642518157558</v>
+        <v>0.2738304427088714</v>
       </c>
       <c r="T2">
-        <v>0.2647642518157558</v>
+        <v>0.2738304427088714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9662916240583</v>
+        <v>28.401376</v>
       </c>
       <c r="H3">
-        <v>20.9662916240583</v>
+        <v>85.204128</v>
       </c>
       <c r="I3">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="J3">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.474216970419344</v>
+        <v>0.6377586666666667</v>
       </c>
       <c r="N3">
-        <v>0.474216970419344</v>
+        <v>1.913276</v>
       </c>
       <c r="O3">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537979</v>
       </c>
       <c r="P3">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537978</v>
       </c>
       <c r="Q3">
-        <v>9.942571294889396</v>
+        <v>18.11322368925867</v>
       </c>
       <c r="R3">
-        <v>9.942571294889396</v>
+        <v>163.019013203328</v>
       </c>
       <c r="S3">
-        <v>0.008077198436862932</v>
+        <v>0.001905345049428196</v>
       </c>
       <c r="T3">
-        <v>0.008077198436862932</v>
+        <v>0.001905345049428196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9662916240583</v>
+        <v>28.401376</v>
       </c>
       <c r="H4">
-        <v>20.9662916240583</v>
+        <v>85.204128</v>
       </c>
       <c r="I4">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="J4">
-        <v>0.3020576937253134</v>
+        <v>0.2813463917610605</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.71530247460854</v>
+        <v>1.877986</v>
       </c>
       <c r="N4">
-        <v>1.71530247460854</v>
+        <v>5.633958</v>
       </c>
       <c r="O4">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="P4">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="Q4">
-        <v>35.96353190611151</v>
+        <v>53.337386508736</v>
       </c>
       <c r="R4">
-        <v>35.96353190611151</v>
+        <v>480.036478578624</v>
       </c>
       <c r="S4">
-        <v>0.02921624347269471</v>
+        <v>0.005610604002760908</v>
       </c>
       <c r="T4">
-        <v>0.02921624347269471</v>
+        <v>0.005610604002760909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.4095111796035</v>
+        <v>14.83037466666667</v>
       </c>
       <c r="H5">
-        <v>14.4095111796035</v>
+        <v>44.491124</v>
       </c>
       <c r="I5">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="J5">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.5444616537335</v>
+        <v>91.65675166666666</v>
       </c>
       <c r="N5">
-        <v>15.5444616537335</v>
+        <v>274.970255</v>
       </c>
       <c r="O5">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="P5">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="Q5">
-        <v>223.9880939803908</v>
+        <v>1359.303967946291</v>
       </c>
       <c r="R5">
-        <v>223.9880939803908</v>
+        <v>12233.73571151662</v>
       </c>
       <c r="S5">
-        <v>0.181964627551051</v>
+        <v>0.1429863137797184</v>
       </c>
       <c r="T5">
-        <v>0.181964627551051</v>
+        <v>0.1429863137797184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.4095111796035</v>
+        <v>14.83037466666667</v>
       </c>
       <c r="H6">
-        <v>14.4095111796035</v>
+        <v>44.491124</v>
       </c>
       <c r="I6">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="J6">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.474216970419344</v>
+        <v>0.6377586666666667</v>
       </c>
       <c r="N6">
-        <v>0.474216970419344</v>
+        <v>1.913276</v>
       </c>
       <c r="O6">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537979</v>
       </c>
       <c r="P6">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537978</v>
       </c>
       <c r="Q6">
-        <v>6.83323473681524</v>
+        <v>9.458199973580445</v>
       </c>
       <c r="R6">
-        <v>6.83323473681524</v>
+        <v>85.123799762224</v>
       </c>
       <c r="S6">
-        <v>0.005551219226689543</v>
+        <v>0.0009949159136620235</v>
       </c>
       <c r="T6">
-        <v>0.005551219226689543</v>
+        <v>0.0009949159136620233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.4095111796035</v>
+        <v>14.83037466666667</v>
       </c>
       <c r="H7">
-        <v>14.4095111796035</v>
+        <v>44.491124</v>
       </c>
       <c r="I7">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="J7">
-        <v>0.2075953054867254</v>
+        <v>0.1469109243485705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.71530247460854</v>
+        <v>1.877986</v>
       </c>
       <c r="N7">
-        <v>1.71530247460854</v>
+        <v>5.633958</v>
       </c>
       <c r="O7">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="P7">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="Q7">
-        <v>24.7166701842733</v>
+        <v>27.85123599875466</v>
       </c>
       <c r="R7">
-        <v>24.7166701842733</v>
+        <v>250.661123988792</v>
       </c>
       <c r="S7">
-        <v>0.02007945870898479</v>
+        <v>0.002929694655190085</v>
       </c>
       <c r="T7">
-        <v>0.02007945870898479</v>
+        <v>0.002929694655190085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.0357435982144</v>
+        <v>57.71632199999999</v>
       </c>
       <c r="H8">
-        <v>34.0357435982144</v>
+        <v>173.148966</v>
       </c>
       <c r="I8">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="J8">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.5444616537335</v>
+        <v>91.65675166666666</v>
       </c>
       <c r="N8">
-        <v>15.5444616537335</v>
+        <v>274.970255</v>
       </c>
       <c r="O8">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="P8">
-        <v>0.8765353682946685</v>
+        <v>0.9732857812565366</v>
       </c>
       <c r="Q8">
-        <v>529.0673112187492</v>
+        <v>5290.090592667369</v>
       </c>
       <c r="R8">
-        <v>529.0673112187492</v>
+        <v>47610.81533400632</v>
       </c>
       <c r="S8">
-        <v>0.4298064889278618</v>
+        <v>0.5564690247679468</v>
       </c>
       <c r="T8">
-        <v>0.4298064889278618</v>
+        <v>0.5564690247679468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.0357435982144</v>
+        <v>57.71632199999999</v>
       </c>
       <c r="H9">
-        <v>34.0357435982144</v>
+        <v>173.148966</v>
       </c>
       <c r="I9">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="J9">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.474216970419344</v>
+        <v>0.6377586666666667</v>
       </c>
       <c r="N9">
-        <v>0.474216970419344</v>
+        <v>1.913276</v>
       </c>
       <c r="O9">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537979</v>
       </c>
       <c r="P9">
-        <v>0.0267405816989658</v>
+        <v>0.006772239151537978</v>
       </c>
       <c r="Q9">
-        <v>16.14032721511482</v>
+        <v>36.809084563624</v>
       </c>
       <c r="R9">
-        <v>16.14032721511482</v>
+        <v>331.281761072616</v>
       </c>
       <c r="S9">
-        <v>0.01311216403541333</v>
+        <v>0.003871978188447759</v>
       </c>
       <c r="T9">
-        <v>0.01311216403541333</v>
+        <v>0.003871978188447759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.0357435982144</v>
+        <v>57.71632199999999</v>
       </c>
       <c r="H10">
-        <v>34.0357435982144</v>
+        <v>173.148966</v>
       </c>
       <c r="I10">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="J10">
-        <v>0.4903470007879613</v>
+        <v>0.571742683890369</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.71530247460854</v>
+        <v>1.877986</v>
       </c>
       <c r="N10">
-        <v>1.71530247460854</v>
+        <v>5.633958</v>
       </c>
       <c r="O10">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="P10">
-        <v>0.09672405000636569</v>
+        <v>0.01994197959192537</v>
       </c>
       <c r="Q10">
-        <v>58.38159521915893</v>
+        <v>108.390444687492</v>
       </c>
       <c r="R10">
-        <v>58.38159521915893</v>
+        <v>975.5140021874278</v>
       </c>
       <c r="S10">
-        <v>0.04742834782468621</v>
+        <v>0.01140168093397437</v>
       </c>
       <c r="T10">
-        <v>0.04742834782468621</v>
+        <v>0.01140168093397437</v>
       </c>
     </row>
   </sheetData>
